--- a/doc/项目wbs分解.xlsx
+++ b/doc/项目wbs分解.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
   <si>
     <t>模块</t>
   </si>
@@ -615,6 +615,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,19 +633,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -980,10 +980,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1005,8 +1005,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1026,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -1068,8 +1068,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1084,13 +1084,15 @@
       <c r="G7" s="5">
         <v>42545</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1110,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -1122,13 +1124,15 @@
       <c r="G9" s="5">
         <v>42545</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -1146,8 +1150,8 @@
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1165,7 +1169,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -1184,7 +1188,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -1203,7 +1207,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -1222,7 +1226,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>24</v>
@@ -1241,7 +1245,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
         <v>26</v>
@@ -1260,7 +1264,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
         <v>25</v>
@@ -1279,7 +1283,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="14"/>
       <c r="D18" s="2" t="s">
         <v>27</v>
@@ -1298,7 +1302,7 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
         <v>28</v>
@@ -1317,8 +1321,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="15" t="s">
         <v>29</v>
       </c>
@@ -1338,8 +1342,8 @@
       <c r="J20" s="27"/>
     </row>
     <row r="21" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="15" t="s">
         <v>30</v>
       </c>
@@ -1359,8 +1363,8 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="15" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1384,7 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>32</v>
@@ -1399,7 +1403,7 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="14"/>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -1418,8 +1422,8 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1439,8 +1443,8 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="15" t="s">
         <v>36</v>
       </c>
@@ -1460,8 +1464,8 @@
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15" t="s">
         <v>37</v>
       </c>
@@ -1481,8 +1485,8 @@
       <c r="J27" s="27"/>
     </row>
     <row r="28" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="15" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1506,7 @@
       <c r="J28" s="27"/>
     </row>
     <row r="29" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1521,7 +1525,7 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B30" s="35"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="14"/>
       <c r="D30" s="2" t="s">
         <v>40</v>
@@ -1540,8 +1544,8 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="35" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -1563,8 +1567,8 @@
       <c r="J31" s="27"/>
     </row>
     <row r="32" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="15" t="s">
         <v>43</v>
       </c>
@@ -1584,8 +1588,8 @@
       <c r="J32" s="27"/>
     </row>
     <row r="33" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
-      <c r="C33" s="37" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="35" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="15" t="s">
@@ -1607,8 +1611,8 @@
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="15" t="s">
         <v>46</v>
       </c>
@@ -1628,8 +1632,8 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B35" s="35"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="32" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1649,8 +1653,8 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="2" t="s">
         <v>49</v>
       </c>
@@ -1668,7 +1672,7 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="14"/>
       <c r="D37" s="2" t="s">
         <v>50</v>
@@ -1687,7 +1691,7 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B38" s="35"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="14"/>
       <c r="D38" s="16" t="s">
         <v>51</v>
@@ -1706,7 +1710,7 @@
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -1729,8 +1733,8 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="33" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="34" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1750,8 +1754,8 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="7" t="s">
         <v>57</v>
       </c>
@@ -1769,8 +1773,8 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="7" t="s">
         <v>58</v>
       </c>
@@ -1788,8 +1792,8 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="33" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1809,8 +1813,8 @@
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="2" t="s">
         <v>74</v>
       </c>
@@ -1828,8 +1832,8 @@
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="2" t="s">
         <v>75</v>
       </c>
@@ -1847,8 +1851,8 @@
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="C46" s="33" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1868,8 +1872,8 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="33"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="7" t="s">
         <v>59</v>
       </c>
@@ -1887,8 +1891,8 @@
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="33" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1908,8 +1912,8 @@
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="7" t="s">
         <v>61</v>
       </c>
@@ -1927,8 +1931,8 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7" t="s">
         <v>62</v>
       </c>
@@ -1946,8 +1950,8 @@
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="7" t="s">
         <v>63</v>
       </c>
@@ -1965,8 +1969,8 @@
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="7" t="s">
         <v>64</v>
       </c>
@@ -1984,8 +1988,8 @@
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="7" t="s">
         <v>65</v>
       </c>
@@ -2003,8 +2007,8 @@
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="7" t="s">
         <v>66</v>
       </c>
@@ -2022,8 +2026,8 @@
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
-      <c r="C55" s="33" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2043,8 +2047,8 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
@@ -2062,8 +2066,8 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2" t="s">
         <v>71</v>
       </c>
@@ -2081,8 +2085,8 @@
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="7" t="s">
         <v>68</v>
       </c>
@@ -2100,8 +2104,8 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
-      <c r="C59" s="33"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="7" t="s">
         <v>69</v>
       </c>
@@ -2119,8 +2123,8 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="29" t="s">
+      <c r="B60" s="31"/>
+      <c r="C60" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2140,8 +2144,8 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
-      <c r="C61" s="29"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="30"/>
       <c r="D61" s="7" t="s">
         <v>77</v>
       </c>
@@ -2159,8 +2163,8 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="29"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="7" t="s">
         <v>78</v>
       </c>
@@ -2178,8 +2182,8 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
-      <c r="C63" s="29"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="7" t="s">
         <v>79</v>
       </c>
@@ -2197,8 +2201,8 @@
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" s="29"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="7" t="s">
         <v>80</v>
       </c>
@@ -2216,8 +2220,8 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B65" s="30"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="17" t="s">
         <v>81</v>
       </c>
@@ -2235,8 +2239,8 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B66" s="30"/>
-      <c r="C66" s="29"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="17" t="s">
         <v>82</v>
       </c>

--- a/doc/项目wbs分解.xlsx
+++ b/doc/项目wbs分解.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>模块</t>
   </si>
@@ -928,7 +928,7 @@
   <dimension ref="B1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1164,9 @@
       <c r="G11" s="5">
         <v>42547</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="6"/>
     </row>

--- a/doc/项目wbs分解.xlsx
+++ b/doc/项目wbs分解.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>模块</t>
   </si>
@@ -928,7 +928,7 @@
   <dimension ref="B1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,9 @@
       <c r="G12" s="5">
         <v>42550</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="6"/>
     </row>
@@ -1204,7 +1206,9 @@
       <c r="G13" s="5">
         <v>42551</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="6"/>
     </row>
@@ -1223,7 +1227,9 @@
       <c r="G14" s="5">
         <v>42552</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="6"/>
     </row>
@@ -1242,7 +1248,9 @@
       <c r="G15" s="5">
         <v>42553</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="6"/>
     </row>

--- a/doc/项目wbs分解.xlsx
+++ b/doc/项目wbs分解.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
   <si>
     <t>模块</t>
   </si>
@@ -402,6 +402,18 @@
   </si>
   <si>
     <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成30%左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1281,9 @@
       <c r="G16" s="5">
         <v>42561</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="6"/>
     </row>
@@ -1307,7 +1321,9 @@
       <c r="G18" s="5">
         <v>42568</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="6"/>
     </row>
@@ -1326,7 +1342,9 @@
       <c r="G19" s="5">
         <v>42569</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="6"/>
     </row>
@@ -1759,7 +1777,9 @@
       <c r="G40" s="5">
         <v>42551</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6"/>
     </row>
@@ -1778,7 +1798,9 @@
       <c r="G41" s="5">
         <v>42552</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
     </row>
@@ -1797,7 +1819,9 @@
       <c r="G42" s="5">
         <v>42554</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="6"/>
     </row>
